--- a/기획서/skills.xlsx
+++ b/기획서/skills.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\윤성재\Desktop\Kronos\Kronos2\기획서\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Seongjae Yoon\Desktop\UnityProjects\Kronos2\기획서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66F27C80-F46D-4DF4-98E0-B8F847536C88}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD55AF69-E9E1-4F43-B65C-E06E48BA8194}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -95,15 +95,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>마법구를 생성해 전방에 직선으로 비행하게 한다. 적에게 닿으면 피해를 입히고 소멸한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>전방에 신성 영역을 만든다. 영역 내 무작위 위치에 지속적으로 폭발을 일으켜 공격한다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>전방에 공중을 베며 검기를 일으켜 날아가게 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>직선방향으로 비행하는 마법구를 전방에 생성한다. 적에게 닿으면 피해를 입히고 소멸한다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -438,7 +438,7 @@
   <dimension ref="B1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -524,7 +524,7 @@
         <v>5</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="2:5" ht="33" x14ac:dyDescent="0.3">
@@ -535,7 +535,7 @@
         <v>28</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.3">
@@ -546,7 +546,7 @@
         <v>18</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
